--- a/Entregables/UdeBarcelona/correlaciones.xlsx
+++ b/Entregables/UdeBarcelona/correlaciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,16 +468,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ffq_vit_b9</t>
+          <t>PAS_der</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ffq_k</t>
+          <t>PAS_izq</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.909749924066012</v>
+        <v>0.9100311704302785</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,28 +486,28 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ffq_vit_b9</t>
+          <t>PAS_der</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ffq_k</t>
+          <t>PAS_izq</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>apolipoproteina_b</t>
+          <t>ffq_k</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>col_ldl</t>
+          <t>ffq_fe</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9242775005817536</v>
+        <v>0.9145084539840033</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>apolipoproteina_b</t>
+          <t>ffq_k</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>col_ldl</t>
+          <t>ffq_fe</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ffq_fibra</t>
+          <t>ffq_k</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9021970233876683</v>
+        <v>0.9214741318214033</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ffq_fibra</t>
+          <t>ffq_k</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -558,16 +558,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ffq_fibra</t>
+          <t>ffq_k</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ffq_protveg</t>
+          <t>ffq_vit_b6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9282980662144376</v>
+        <v>0.9363369444163208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -576,28 +576,28 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ffq_fibra</t>
+          <t>ffq_k</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ffq_protveg</t>
+          <t>ffq_vit_b6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>wcst_te_t</t>
+          <t>ffq_k</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>wcst_te_pd</t>
+          <t>ffq_vit_b9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9585823066914135</v>
+        <v>0.909749924066012</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -606,28 +606,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>wcst_te_t</t>
+          <t>ffq_k</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>wcst_te_pd</t>
+          <t>ffq_vit_b9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>wcst_pp_pd</t>
+          <t>cv_physical</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>wcst_ep_pd</t>
+          <t>cv_physical_100</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9791712184736002</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -636,28 +636,28 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>wcst_pp_pd</t>
+          <t>cv_physical</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>wcst_ep_pd</t>
+          <t>cv_physical_100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ffq_agm</t>
+          <t>d2_con_pd</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ffq_grasa</t>
+          <t>d2_con4_pd</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9563835172623266</v>
+        <v>0.9274950351533602</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -666,28 +666,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ffq_agm</t>
+          <t>d2_con_pd</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ffq_grasa</t>
+          <t>d2_con4_pd</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cv_percepcion_calidad_vida</t>
+          <t>d2_con_pd</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cv_percepcion_calidad_vida_100</t>
+          <t>d2_con3_pd</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.9526354455621477</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -696,28 +696,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>cv_percepcion_calidad_vida</t>
+          <t>d2_con_pd</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>cv_percepcion_calidad_vida_100</t>
+          <t>d2_con3_pd</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cv_percepcion_calidad_vida</t>
+          <t>d2_con_pd</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cv_p1</t>
+          <t>d2_con_pt</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.9649955701761311</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -726,28 +726,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>cv_percepcion_calidad_vida</t>
+          <t>d2_con_pd</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>cv_p1</t>
+          <t>d2_con_pt</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mg_dia_licopeno</t>
+          <t>d2_con_pd</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>g_dia_tom</t>
+          <t>d2_con2_pd</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.9635004529824239</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -756,28 +756,28 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>mg_dia_licopeno</t>
+          <t>d2_con_pd</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>g_dia_tom</t>
+          <t>d2_con2_pd</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mg_dia_licopeno</t>
+          <t>d2_con_pd</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>d2_con_pc</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9920038339505832</v>
+        <v>0.9645919254646871</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -786,58 +786,58 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>mg_dia_licopeno</t>
+          <t>d2_con_pd</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>d2_con_pc</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>d2_con2_pd</t>
+          <t>d2_con_pd</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>d2_con1_pd</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9364144344830977</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>keep_higher_corr_with_target</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>d2_con_pd</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>0.9635004529824239</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>keep_higher_corr_with_target</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>d2_con2_pd</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>d2_con_pd</t>
+          <t>d2_con1_pd</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>d2_con2_pd</t>
+          <t>hierro</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>d2_con_pt</t>
+          <t>saturacion_transferrina</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9401457800557688</v>
+        <v>0.9161687921387616</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -846,28 +846,28 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>d2_con2_pd</t>
+          <t>hierro</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>d2_con_pt</t>
+          <t>saturacion_transferrina</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>d2_con2_pd</t>
+          <t>transferrina</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>d2_con_pc</t>
+          <t>capacidad_ligar_hierro</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9400035835653642</v>
+        <v>0.977932993544576</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -876,28 +876,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>d2_con2_pd</t>
+          <t>transferrina</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>d2_con_pc</t>
+          <t>capacidad_ligar_hierro</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PAS_izq</t>
+          <t>d2_vt_pd</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PAS_der</t>
+          <t>d2_vt_pt</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9100311704302785</v>
+        <v>0.9568460212957828</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -906,28 +906,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PAS_izq</t>
+          <t>d2_vt_pd</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>PAS_der</t>
+          <t>d2_vt_pt</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>eficiencia_sueño</t>
+          <t>d2_vt_pd</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>waso</t>
+          <t>d2_vt_pc</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9199989878159186</v>
+        <v>0.9560375558378015</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -936,28 +936,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>eficiencia_sueño</t>
+          <t>d2_vt_pd</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>waso</t>
+          <t>d2_vt_pc</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>transferrina</t>
+          <t>inr</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>capacidad_ligar_hierro</t>
+          <t>tiempo_protrombina</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.977932993544576</v>
+        <v>0.9601127861065658</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -966,28 +966,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>transferrina</t>
+          <t>inr</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>capacidad_ligar_hierro</t>
+          <t>tiempo_protrombina</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>leucocitos</t>
+          <t>inr</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>neutrofilos</t>
+          <t>tiempo_protrombina_rati</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9019912646757149</v>
+        <v>0.9776389549439128</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -996,28 +996,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>leucocitos</t>
+          <t>inr</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>neutrofilos</t>
+          <t>tiempo_protrombina_rati</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hierro</t>
+          <t>hematocrito</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>saturacion_transferrina</t>
+          <t>hemoglobina</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9161687921387616</v>
+        <v>0.9644157267860176</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1026,28 +1026,28 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>hierro</t>
+          <t>hematocrito</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>saturacion_transferrina</t>
+          <t>hemoglobina</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cv_physical</t>
+          <t>min_cama</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cv_physical_100</t>
+          <t>min_dormir</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0.986205116016221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1056,28 +1056,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>cv_physical</t>
+          <t>min_cama</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>cv_physical_100</t>
+          <t>min_dormir</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ind_frag</t>
+          <t>ffq_ags</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ind_frag_sueño</t>
+          <t>ffq_grasa</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.927812088690898</v>
+        <v>0.9159056393641795</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1086,28 +1086,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ind_frag</t>
+          <t>ffq_ags</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ind_frag_sueño</t>
+          <t>ffq_grasa</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>phenoage</t>
+          <t>ffq_prot</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>mortality_risk</t>
+          <t>ffq_p</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0.9114508453984004</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1116,28 +1116,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>phenoage</t>
+          <t>ffq_prot</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>mortality_risk</t>
+          <t>ffq_p</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>wcst_ife_pd</t>
+          <t>ffq_prot</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>wcst_ife_t</t>
+          <t>ffq_zn</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9922693201092924</v>
+        <v>0.9441935810468766</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1146,28 +1146,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>wcst_ife_pd</t>
+          <t>ffq_prot</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>wcst_ife_t</t>
+          <t>ffq_zn</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>d2_e_pd</t>
+          <t>af_ligera_porcentaje</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>d2_e_pt</t>
+          <t>af_mv_procentaje</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9969599552925796</v>
+        <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1176,28 +1176,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>d2_e_pd</t>
+          <t>af_ligera_porcentaje</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>d2_e_pt</t>
+          <t>af_mv_procentaje</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>d2_e_pd</t>
+          <t>af_ligera_porcentaje</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>d2_e_pc</t>
+          <t>af_mv</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.996954876319285</v>
+        <v>0.9669375050557508</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1206,28 +1206,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>d2_e_pd</t>
+          <t>af_ligera_porcentaje</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>d2_e_pc</t>
+          <t>af_mv</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>licopeno</t>
+          <t>cv_p2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>licopeno_trans</t>
+          <t>cv_percepcion_salud_100</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9651510089198028</v>
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1236,28 +1236,28 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>licopeno</t>
+          <t>cv_p2</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>licopeno_trans</t>
+          <t>cv_percepcion_salud_100</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>licopeno</t>
+          <t>cv_p2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>licopeno_5cis</t>
+          <t>cv_percepcion_salud</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9613441464427097</v>
+        <v>1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1266,28 +1266,28 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>licopeno</t>
+          <t>cv_p2</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>licopeno_5cis</t>
+          <t>cv_percepcion_salud</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>cv_percepcion_salud_100</t>
+          <t>PAD_izq</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cv_percepcion_salud</t>
+          <t>PAD_der</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0.938685996571714</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1296,28 +1296,28 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>cv_percepcion_salud_100</t>
+          <t>PAD_izq</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>cv_percepcion_salud</t>
+          <t>PAD_der</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cv_percepcion_salud_100</t>
+          <t>insulina</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cv_p2</t>
+          <t>homa_ir</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0.9865666404251082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1326,28 +1326,28 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>cv_percepcion_salud_100</t>
+          <t>insulina</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>cv_p2</t>
+          <t>homa_ir</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PAD_izq</t>
+          <t>wcst_ife_pd</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PAD_der</t>
+          <t>wcst_ife_t</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.938685996571714</v>
+        <v>0.9922693201092924</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1356,28 +1356,28 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PAD_izq</t>
+          <t>wcst_ife_pd</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PAD_der</t>
+          <t>wcst_ife_t</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>d2_vt_pt</t>
+          <t>cv_enviroment_100</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>d2_vt_pd</t>
+          <t>cv_enviroment</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9568460212957828</v>
+        <v>1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1386,28 +1386,28 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>d2_vt_pt</t>
+          <t>cv_enviroment_100</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>d2_vt_pd</t>
+          <t>cv_enviroment</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>d2_vt_pt</t>
+          <t>ind_frag_sueño</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>d2_vt_pc</t>
+          <t>ind_frag</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9997056360481306</v>
+        <v>0.927812088690898</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1416,24 +1416,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>d2_vt_pt</t>
+          <t>ind_frag_sueño</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>d2_vt_pc</t>
+          <t>ind_frag</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cv_psychological_100</t>
+          <t>mortality_risk</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cv_psychological</t>
+          <t>phenoage</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1446,28 +1446,28 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>cv_psychological_100</t>
+          <t>mortality_risk</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>cv_psychological</t>
+          <t>phenoage</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ffq_prot</t>
+          <t>ffq_vit_a</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ffq_zn</t>
+          <t>ffq_carotenoides</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9441935810468766</v>
+        <v>0.9146096993014073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1476,28 +1476,28 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ffq_prot</t>
+          <t>ffq_vit_a</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ffq_zn</t>
+          <t>ffq_carotenoides</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ffq_prot</t>
+          <t>col_ldl</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ffq_p</t>
+          <t>col_total</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9114508453984004</v>
+        <v>0.9116744462565898</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1506,28 +1506,28 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ffq_prot</t>
+          <t>col_ldl</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ffq_p</t>
+          <t>col_total</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>pgh_duracion_sueño</t>
+          <t>col_ldl</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pgh_h_dormir</t>
+          <t>apolipoproteina_b</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9607978879037453</v>
+        <v>0.9242775005817536</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1536,28 +1536,28 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>pgh_duracion_sueño</t>
+          <t>col_ldl</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>pgh_h_dormir</t>
+          <t>apolipoproteina_b</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>tiempo_protrombina</t>
+          <t>hads_score</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>tiempo_protrombina_rati</t>
+          <t>ansiedad</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.9813588048850475</v>
+        <v>0.9017275698653668</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1566,28 +1566,28 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>tiempo_protrombina</t>
+          <t>hads_score</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>tiempo_protrombina_rati</t>
+          <t>ansiedad</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>tiempo_protrombina</t>
+          <t>mg_dia_licopeno</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>inr</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.9601127861065658</v>
+        <v>0.9920038339505832</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1596,28 +1596,28 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>tiempo_protrombina</t>
+          <t>mg_dia_licopeno</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>inr</t>
+          <t>peso</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>hemoglobina</t>
+          <t>mg_dia_licopeno</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>hematocrito</t>
+          <t>tmb</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9644157267860176</v>
+        <v>0.942024251768561</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1626,24 +1626,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>hemoglobina</t>
+          <t>mg_dia_licopeno</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>hematocrito</t>
+          <t>tmb</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cv_social_relationships</t>
+          <t>mg_dia_licopeno</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cv_social_relationships_100</t>
+          <t>g_dia_tom</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1656,28 +1656,28 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cv_social_relationships</t>
+          <t>mg_dia_licopeno</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>cv_social_relationships_100</t>
+          <t>g_dia_tom</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>hads_score</t>
+          <t>d2_e_pd</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ansiedad</t>
+          <t>d2_e_pt</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.9017275698653668</v>
+        <v>0.9969599552925796</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1686,28 +1686,28 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>hads_score</t>
+          <t>d2_e_pd</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ansiedad</t>
+          <t>d2_e_pt</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>musculo</t>
+          <t>d2_e_pd</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>grasa</t>
+          <t>d2_e_pc</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.956604746204635</v>
+        <v>0.996954876319285</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1716,28 +1716,28 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>musculo</t>
+          <t>d2_e_pd</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>grasa</t>
+          <t>d2_e_pc</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>insulina</t>
+          <t>wcst_pp_pd</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>homa_ir</t>
+          <t>wcst_ep_pd</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.9865666404251082</v>
+        <v>0.9791712184736002</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1746,28 +1746,28 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>insulina</t>
+          <t>wcst_pp_pd</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>homa_ir</t>
+          <t>wcst_ep_pd</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cv_enviroment_100</t>
+          <t>eficiencia_sueño</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>cv_enviroment</t>
+          <t>waso</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0.9199989878159186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1776,28 +1776,28 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cv_enviroment_100</t>
+          <t>eficiencia_sueño</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>cv_enviroment</t>
+          <t>waso</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>af_mv</t>
+          <t>albumina_porcentaje</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>af_mv_procentaje</t>
+          <t>indice_albumina_globulinas</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.9669375050557508</v>
+        <v>0.9997467443951911</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1806,28 +1806,28 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>af_mv</t>
+          <t>albumina_porcentaje</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>af_mv_procentaje</t>
+          <t>indice_albumina_globulinas</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>af_mv</t>
+          <t>licopeno_5cis</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>af_ligera_porcentaje</t>
+          <t>licopeno_trans</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.9669375050557508</v>
+        <v>0.9124219137583655</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1836,28 +1836,28 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>af_mv</t>
+          <t>licopeno_5cis</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>af_ligera_porcentaje</t>
+          <t>licopeno_trans</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>min_cama</t>
+          <t>licopeno_5cis</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>min_dormir</t>
+          <t>licopeno</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.986205116016221</v>
+        <v>0.9613441464427097</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1866,28 +1866,28 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>min_cama</t>
+          <t>licopeno_5cis</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>min_dormir</t>
+          <t>licopeno</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ffq_vit_a</t>
+          <t>wcst_te_t</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ffq_carotenoides</t>
+          <t>wcst_te_pd</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.9146096993014073</v>
+        <v>0.9585823066914135</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1896,28 +1896,28 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ffq_vit_a</t>
+          <t>wcst_te_t</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ffq_carotenoides</t>
+          <t>wcst_te_pd</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>albumina_porcentaje</t>
+          <t>cv_psychological</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>indice_albumina_globulinas</t>
+          <t>cv_psychological_100</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.9997467443951911</v>
+        <v>1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1926,12 +1926,222 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>albumina_porcentaje</t>
+          <t>cv_psychological</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>indice_albumina_globulinas</t>
+          <t>cv_psychological_100</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>pgh_duracion_sueño</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>pgh_h_dormir</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9607978879037453</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>keep_higher_corr_with_target</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>pgh_duracion_sueño</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>pgh_h_dormir</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>cv_p1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cv_percepcion_calidad_vida</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>keep_higher_corr_with_target</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>cv_p1</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>cv_percepcion_calidad_vida</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>cv_p1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cv_percepcion_calidad_vida_100</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>keep_higher_corr_with_target</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>cv_p1</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>cv_percepcion_calidad_vida_100</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ffq_protveg</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ffq_fibra</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.9282980662144376</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>keep_higher_corr_with_target</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ffq_protveg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ffq_fibra</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>musculo</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>grasa</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.956604746204635</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>keep_higher_corr_with_target</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>musculo</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>grasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>neutrofilos</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>leucocitos</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.9019912646757149</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>keep_higher_corr_with_target</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>neutrofilos</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>leucocitos</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>cv_social_relationships</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cv_social_relationships_100</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>keep_higher_corr_with_target</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>cv_social_relationships</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>cv_social_relationships_100</t>
         </is>
       </c>
     </row>

--- a/Entregables/UdeBarcelona/correlaciones.xlsx
+++ b/Entregables/UdeBarcelona/correlaciones.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mardo\Documents\Repositories\Proyecto-Polifenoles\Entregables\UdeBarcelona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C108654-43B7-4B5F-A028-C93478E8FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7FAFE0-A27D-4DC7-9523-06B3907B92EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1020" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1020" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="To_Delete" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="120">
   <si>
     <t>var_a</t>
   </si>
@@ -393,6 +394,9 @@
   </si>
   <si>
     <t>Por quedarons con las que no tienen _100</t>
+  </si>
+  <si>
+    <t>VARIABLE</t>
   </si>
 </sst>
 </file>
@@ -469,17 +473,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,14 +936,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:H57"/>
+    <sheetView topLeftCell="D31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="32.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="39" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -962,7 +966,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -987,7 +991,7 @@
         <f>VLOOKUP(F2,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1014,7 +1018,7 @@
         <f>VLOOKUP(F3,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>102</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1044,7 +1048,7 @@
         <f>VLOOKUP(F4,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1069,7 +1073,7 @@
         <f>VLOOKUP(F5,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1094,7 +1098,7 @@
         <f>VLOOKUP(F6,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1119,7 +1123,7 @@
         <f>VLOOKUP(F7,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1146,7 +1150,7 @@
         <f>VLOOKUP(F8,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="8" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1173,7 +1177,7 @@
         <f>VLOOKUP(F9,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1198,7 +1202,7 @@
         <f>VLOOKUP(F10,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>d2_con_pt</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1223,7 +1227,7 @@
         <f>VLOOKUP(F11,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>d2_con2_pd</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1248,7 +1252,7 @@
         <f>VLOOKUP(F12,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>d2_con_pc</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1273,7 +1277,7 @@
         <f>VLOOKUP(F13,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>d2_con1_pd</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1298,7 +1302,7 @@
         <f>VLOOKUP(F14,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -1328,7 +1332,7 @@
         <f>VLOOKUP(F15,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1355,7 +1359,7 @@
         <f>VLOOKUP(F16,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>d2_vt_pt</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1382,7 +1386,7 @@
         <f>VLOOKUP(F17,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>d2_vt_pc</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1407,7 +1411,7 @@
         <f>VLOOKUP(F18,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>tiempo_protrombina</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1434,7 +1438,7 @@
         <f>VLOOKUP(F19,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>tiempo_protrombina_rati</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1540,7 +1544,7 @@
         <f>VLOOKUP(F23,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="7" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1567,7 +1571,7 @@
         <f>VLOOKUP(F24,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1592,7 +1596,7 @@
         <f>VLOOKUP(F25,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1619,7 +1623,7 @@
         <f>VLOOKUP(F26,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1644,7 +1648,7 @@
         <f>VLOOKUP(F27,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1671,7 +1675,7 @@
         <f>VLOOKUP(F28,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1696,7 +1700,7 @@
         <f>VLOOKUP(F29,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1723,7 +1727,7 @@
         <f>VLOOKUP(F30,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1750,7 +1754,7 @@
         <f>VLOOKUP(F31,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1777,7 +1781,7 @@
         <f>VLOOKUP(F32,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="4" t="s">
         <v>116</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -1807,7 +1811,7 @@
         <f>VLOOKUP(F33,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1834,7 +1838,7 @@
         <f>VLOOKUP(F34,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>phenoage</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="5" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2402,4 +2406,551 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F111234-656B-47A1-83F1-6E8C33C03913}">
+  <dimension ref="A1:B59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"- "&amp;A2</f>
+        <v>- PAS_der</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B59" si="0">"- "&amp;A3</f>
+        <v>- PAS_izq</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>- ffq_fe</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>- ffq_mg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>- ffq_vit_b6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>- ffq_vit_b9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>- cv_physical_100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>- d2_con4_pd</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>- d2_con3_pd</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>- d2_con_pt</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>- d2_con2_pd</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>- d2_con_pc</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>- d2_con1_pd</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>- saturacion_transferrina</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>- capacidad_ligar_hierro</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>- d2_vt_pt</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>- d2_vt_pc</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>- tiempo_protrombina</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>- tiempo_protrombina_rati</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>- hemoglobina</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>- min_dormir</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>- ffq_grasa</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>- ffq_p</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>- ffq_zn</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>- af_mv_procentaje</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>- af_mv</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>- cv_percepcion_salud_100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>- cv_percepcion_salud</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>- PAD_izq</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>- PAD_der</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>- homa_ir</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>- wcst_ife_t</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>- cv_enviroment_100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>- ind_frag</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>- mortality_risk</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>- ffq_carotenoides</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>- col_total</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>- apolipoproteina_b</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>- ansiedad</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>- peso</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>- tmb</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>- g_dia_tom</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>- d2_e_pt</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>- d2_e_pc</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>- wcst_ep_pd</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>- waso</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>- indice_albumina_globulinas</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>- licopeno_trans</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>- licopeno</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>- wcst_te_pd</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>- cv_psychological_100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>- pgh_h_dormir</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>- cv_percepcion_calidad_vida</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>- cv_percepcion_calidad_vida_100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>- ffq_fibra</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>- grasa</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>- leucocitos</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>- cv_social_relationships_100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Entregables/UdeBarcelona/correlaciones.xlsx
+++ b/Entregables/UdeBarcelona/correlaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mardo\Documents\Repositories\Proyecto-Polifenoles\Entregables\UdeBarcelona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7FAFE0-A27D-4DC7-9523-06B3907B92EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275FD70B-0D67-4B16-ADCB-1F3829B2D0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1020" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="123">
   <si>
     <t>var_a</t>
   </si>
@@ -397,6 +397,15 @@
   </si>
   <si>
     <t>VARIABLE</t>
+  </si>
+  <si>
+    <t>Quedarnos con licopeno</t>
+  </si>
+  <si>
+    <t>Quedarnos con wcst_te_pd</t>
+  </si>
+  <si>
+    <t>Quedarnos con cv_percepcion_calidad_vida</t>
   </si>
 </sst>
 </file>
@@ -936,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="D31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35:F57"/>
+    <sheetView topLeftCell="D34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,8 +2186,11 @@
         <f>VLOOKUP(F48,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>83</v>
       </c>
@@ -2201,8 +2213,11 @@
         <f>VLOOKUP(F49,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>85</v>
       </c>
@@ -2226,7 +2241,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>87</v>
       </c>
@@ -2250,7 +2265,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>89</v>
       </c>
@@ -2273,8 +2288,11 @@
         <f>VLOOKUP(F52,[1]Sheet1!$B$2:$B$27,1,0)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>89</v>
       </c>
@@ -2298,7 +2316,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
@@ -2322,7 +2340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
@@ -2346,7 +2364,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>96</v>
       </c>
@@ -2370,7 +2388,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>98</v>
       </c>
@@ -2412,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F111234-656B-47A1-83F1-6E8C33C03913}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,11 +2879,11 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>- licopeno</v>
+        <v>- licopeno_5cis</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2897,11 +2915,11 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>- cv_percepcion_calidad_vida</v>
+        <v>- cv_p1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
